--- a/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,99</t>
+          <t>4,51; 16,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,9</t>
+          <t>0,98; 9,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,36</t>
+          <t>-5,19; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,02</t>
+          <t>-4,9; 3,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,94</t>
+          <t>-3,32; 5,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,37</t>
+          <t>1,19; 8,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,43</t>
+          <t>-0,76; 4,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,63</t>
+          <t>-1,5; 2,47</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-46,96%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>-27,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,98%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,6%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>578,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,24%</t>
+          <t>238,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-37,4%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,71; 184,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,62; 101,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,12; 177,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 412,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 120,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 159,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 33,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,88; 57,08</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,06</t>
+          <t>-2,19; 1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,53</t>
+          <t>-3,23; 0,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,44</t>
+          <t>-0,68; 4,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,4</t>
+          <t>-2,82; 1,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,32</t>
+          <t>-3,06; 0,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,34</t>
+          <t>-0,91; 2,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,45</t>
+          <t>-2,33; 0,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,47</t>
+          <t>-2,39; 0,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-27,2%</t>
+          <t>68,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>-32,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>-46,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>578,26%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>238,31%</t>
+          <t>-40,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>-37,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,71; 184,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,62; 101,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,12; 177,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,26; 412,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,08; 120,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 103,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,42; 159,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,0; 33,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,88; 57,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,47</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>578,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>238,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,99</t>
+          <t>-2,1; 5,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,9</t>
+          <t>-4,0; 2,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,44</t>
+          <t>-4,88; 1,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,36</t>
+          <t>-2,08; 3,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,02</t>
+          <t>-2,44; 2,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,94</t>
+          <t>-1,43; 6,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,37</t>
+          <t>-1,21; 3,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,43</t>
+          <t>-2,56; 1,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,63</t>
+          <t>-2,22; 2,8</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-46,96%</t>
+          <t>-19,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,85%</t>
+          <t>-45,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-32,98%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,6%</t>
+          <t>119,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-40,24%</t>
+          <t>-12,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-37,4%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,71; 184,96</t>
+          <t>-49,49; 557,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,62; 101,19</t>
+          <t>-84,12; 258,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,12; 177,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 412,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 120,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 159,05</t>
+          <t>-43,34; 307,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 33,18</t>
+          <t>-72,36; 178,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,88; 57,08</t>
+          <t>-78,9; 335,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,19</t>
+          <t>-0,77; 3,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,78</t>
+          <t>-1,71; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,26</t>
+          <t>-1,96; 2,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,4</t>
+          <t>-1,22; 5,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,09</t>
+          <t>-3,3; 1,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,22</t>
+          <t>-4,7; -0,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,07</t>
+          <t>-0,44; 3,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,94</t>
+          <t>-2,02; 1,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,52</t>
+          <t>-2,59; 0,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>127,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,77%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-27,9%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-27,49%</t>
+          <t>-38,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,82%</t>
+          <t>-87,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>79,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>-29,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,96%</t>
+          <t>-56,38%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 420,69</t>
+          <t>-59,17; 988,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,92; 220,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-86,73; 158,78</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 264,52</t>
+          <t>-39,66; 459,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 113,65</t>
+          <t>-88,65; 151,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,55; 116,54</t>
+          <t>-100,0; 76,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 215,25</t>
+          <t>-23,66; 339,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 83,19</t>
+          <t>-78,71; 105,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-74,61; 43,36</t>
+          <t>-94,14; 71,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 4,02</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 1,81</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 1,37</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 3,44</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 1,17</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 1,07</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 3,02</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 1,01</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 0,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>95,51%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,77%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-27,9%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>48,82%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-27,49%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-39,82%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>71,27%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-18,59%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-33,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-17,89; 404,21</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-69,02; 181,8</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-84,54; 134,46</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-39,67; 249,09</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-76,26; 116,03</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-88,43; 125,18</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,18; 219,62</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-61,49; 89,51</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-75,47; 53,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 5,5</t>
+          <t>-1,87; 5,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,42</t>
+          <t>-4,21; 2,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,92</t>
+          <t>-4,45; 1,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,77</t>
+          <t>-2,02; 3,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,32</t>
+          <t>-2,92; 2,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,71</t>
+          <t>-1,38; 6,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,62</t>
+          <t>-1,07; 3,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,61</t>
+          <t>-2,39; 1,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,8</t>
+          <t>-2,34; 2,74</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 557,14</t>
+          <t>-52,18; 513,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,12; 258,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 317,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 307,2</t>
+          <t>-36,94; 328,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 178,39</t>
+          <t>-69,59; 180,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,9; 335,62</t>
+          <t>-78,02; 274,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,8</t>
+          <t>-0,82; 4,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,07</t>
+          <t>-1,78; 2,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,1</t>
+          <t>-1,82; 2,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,56</t>
+          <t>-1,54; 5,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,25</t>
+          <t>-3,39; 1,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -0,71</t>
+          <t>-4,87; -0,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,68</t>
+          <t>-0,45; 3,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,05</t>
+          <t>-2,02; 1,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,37</t>
+          <t>-2,44; 0,56</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 988,09</t>
+          <t>-61,04; 759,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 459,01</t>
+          <t>-46,88; 408,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,65; 151,43</t>
+          <t>-84,65; 184,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 76,27</t>
+          <t>-100,0; 57,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 339,77</t>
+          <t>-23,98; 307,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-78,71; 105,29</t>
+          <t>-74,27; 111,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,14; 71,28</t>
+          <t>-90,96; 74,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,02</t>
+          <t>-0,24; 3,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,81</t>
+          <t>-1,9; 1,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,37</t>
+          <t>-2,24; 1,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,44</t>
+          <t>-1,27; 3,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,17</t>
+          <t>-2,54; 1,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,07</t>
+          <t>-2,84; 1,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,02</t>
+          <t>-0,05; 2,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,01</t>
+          <t>-1,51; 1,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,61</t>
+          <t>-1,96; 0,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 404,21</t>
+          <t>-17,77; 430,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,02; 181,8</t>
+          <t>-71,13; 205,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,54; 134,46</t>
+          <t>-85,18; 226,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 249,09</t>
+          <t>-43,26; 241,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 116,03</t>
+          <t>-74,99; 99,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-88,43; 125,18</t>
+          <t>-87,61; 113,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 219,62</t>
+          <t>-1,95; 220,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 89,51</t>
+          <t>-58,28; 91,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 53,77</t>
+          <t>-73,69; 56,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,81</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,57</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 5,82</t>
+          <t>-2,2; 3,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,75</t>
+          <t>-3,04; 2,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,99</t>
+          <t>-0,97; 7,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,61</t>
+          <t>-1,91; 5,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,19</t>
+          <t>-4,35; 2,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,85</t>
+          <t>-4,41; 2,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,78</t>
+          <t>-1,14; 3,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,68</t>
+          <t>-2,25; 1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,74</t>
+          <t>-2,27; 2,91</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>55,97%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>134,29%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>62,75%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-19,63%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-45,86%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>55,97%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,04%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>119,68%</t>
+          <t>-43,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,18; 513,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 317,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,42; 468,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 338,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 328,42</t>
+          <t>-41,83; 310,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 180,49</t>
+          <t>-69,57; 161,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,02; 274,4</t>
+          <t>-80,92; 306,74</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,51</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,11</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,18</t>
+          <t>-1,57; 4,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,3</t>
+          <t>-3,52; 1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,19</t>
+          <t>-4,54; -0,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,34</t>
+          <t>-0,65; 4,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,53</t>
+          <t>-1,99; 2,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; -0,63</t>
+          <t>-1,76; 2,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,42</t>
+          <t>-0,45; 3,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,08</t>
+          <t>-2,1; 1,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,56</t>
+          <t>-2,54; 0,48</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>57,84%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-38,63%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-88,88%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>127,86%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-9,11%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>57,84%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-38,63%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-87,82%</t>
+          <t>-5,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-56,38%</t>
+          <t>-60,45%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,04; 759,91</t>
+          <t>-48,72; 382,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,54; 116,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 50,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 408,67</t>
+          <t>-51,52; 985,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-84,65; 184,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 307,2</t>
+          <t>-21,15; 341,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 111,79</t>
+          <t>-76,44; 110,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-90,96; 74,37</t>
+          <t>-92,42; 102,53</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,78</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,16</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,99</t>
+          <t>-1,09; 3,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,76</t>
+          <t>-2,38; 1,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,44</t>
+          <t>-3,01; 1,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,07</t>
+          <t>-0,13; 4,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,0</t>
+          <t>-1,9; 1,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,08</t>
+          <t>-2,4; 1,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,87</t>
+          <t>0,03; 3,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,05</t>
+          <t>-1,51; 0,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,68</t>
+          <t>-2,0; 0,49</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>48,82%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-27,49%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-41,63%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>95,51%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-8,77%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-27,9%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>48,82%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-27,49%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-39,82%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-33,96%</t>
+          <t>-35,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 430,5</t>
+          <t>-36,98; 264,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 205,21</t>
+          <t>-77,52; 113,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-85,18; 226,53</t>
+          <t>-90,22; 93,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 241,09</t>
+          <t>-17,51; 420,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 99,9</t>
+          <t>-70,92; 220,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 113,47</t>
+          <t>-86,42; 183,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 220,57</t>
+          <t>-4,07; 215,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 91,02</t>
+          <t>-59,17; 83,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 56,56</t>
+          <t>-75,45; 39,03</t>
         </is>
       </c>
     </row>
